--- a/OERGRES_NEW.xlsx
+++ b/OERGRES_NEW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="-2540" windowWidth="28360" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="28360" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainoegres" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6386" uniqueCount="3712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6521" uniqueCount="3785">
   <si>
     <t>GP</t>
   </si>
@@ -11257,12 +11257,231 @@
   <si>
     <t>CS,L,IT,Gp,GT</t>
   </si>
+  <si>
+    <t>Matrins2009</t>
+  </si>
+  <si>
+    <t>Nyamong02009</t>
+  </si>
+  <si>
+    <t>AR,CS,CT,GP</t>
+  </si>
+  <si>
+    <t>Gusano2009</t>
+  </si>
+  <si>
+    <t>Mondoni2009</t>
+  </si>
+  <si>
+    <t>Zeinalabedini2009</t>
+  </si>
+  <si>
+    <t>CS,CT, GP, GT</t>
+  </si>
+  <si>
+    <t>El-Kassaby2009</t>
+  </si>
+  <si>
+    <t>San2009</t>
+  </si>
+  <si>
+    <t>SD,CT,GP</t>
+  </si>
+  <si>
+    <t>Keshtar2009</t>
+  </si>
+  <si>
+    <t>Mulaudzi2009</t>
+  </si>
+  <si>
+    <t>L,IT,CS,GP,GT,NA</t>
+  </si>
+  <si>
+    <t>Li2009</t>
+  </si>
+  <si>
+    <t>AR,CS,PS,CT,GP</t>
+  </si>
+  <si>
+    <t>OT,SD,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Chmielarz2009a</t>
+  </si>
+  <si>
+    <t>Mallik2008</t>
+  </si>
+  <si>
+    <t>Mondoni2008</t>
+  </si>
+  <si>
+    <t>CS,WS,IT,GT,GP,GT</t>
+  </si>
+  <si>
+    <t>Keshtar2008</t>
+  </si>
+  <si>
+    <t>CT,PS,Gp,GT</t>
+  </si>
+  <si>
+    <t>Roh2008</t>
+  </si>
+  <si>
+    <t>Wang2008</t>
+  </si>
+  <si>
+    <t>CS,CT,PS,SD,OT,GP,GT</t>
+  </si>
+  <si>
+    <t>Shahba2008</t>
+  </si>
+  <si>
+    <t>Patil2008</t>
+  </si>
+  <si>
+    <t>Goggin2008</t>
+  </si>
+  <si>
+    <t>L,CSGP,GT</t>
+  </si>
+  <si>
+    <t>Gianinetti2008</t>
+  </si>
+  <si>
+    <t>Necajeva2008</t>
+  </si>
+  <si>
+    <t>SP,GP</t>
+  </si>
+  <si>
+    <t>Baskin2008</t>
+  </si>
+  <si>
+    <t>IT,GT,GT</t>
+  </si>
+  <si>
+    <t>Chen2008</t>
+  </si>
+  <si>
+    <t>Burmier2008</t>
+  </si>
+  <si>
+    <t>CS,L,IT,OT,GP</t>
+  </si>
+  <si>
+    <t>Hoyle2008</t>
+  </si>
+  <si>
+    <t>Raghu2008</t>
+  </si>
+  <si>
+    <t>Pasquini2008</t>
+  </si>
+  <si>
+    <t>Vanderlook2008</t>
+  </si>
+  <si>
+    <t>AR,WS,CS,L,GP</t>
+  </si>
+  <si>
+    <t>Conner2008</t>
+  </si>
+  <si>
+    <t>Nurse2008</t>
+  </si>
+  <si>
+    <t>L,IT,SD,CT,GP</t>
+  </si>
+  <si>
+    <t>Ronnenberg2008</t>
+  </si>
+  <si>
+    <t>Antonidaki-Giatromanolaki2008</t>
+  </si>
+  <si>
+    <t>Hay2008</t>
+  </si>
+  <si>
+    <t>Wagner2008</t>
+  </si>
+  <si>
+    <t>Drennan2008</t>
+  </si>
+  <si>
+    <t>Olmez2008</t>
+  </si>
+  <si>
+    <t>Jewson2008</t>
+  </si>
+  <si>
+    <t>Susko2008</t>
+  </si>
+  <si>
+    <t>IT,L,CS,SD,OT,GP</t>
+  </si>
+  <si>
+    <t>Hoyle2008a</t>
+  </si>
+  <si>
+    <t>AR,WS,OT,GP</t>
+  </si>
+  <si>
+    <t>El-Kassaby2008</t>
+  </si>
+  <si>
+    <t>Qu2008</t>
+  </si>
+  <si>
+    <t>Geneve2008</t>
+  </si>
+  <si>
+    <t>Karlsson2008</t>
+  </si>
+  <si>
+    <t>WS,CS,SD,GP,GT</t>
+  </si>
+  <si>
+    <t>Nurse2008a</t>
+  </si>
+  <si>
+    <t>L,IT,CT,GP</t>
+  </si>
+  <si>
+    <t>Wagner2008a</t>
+  </si>
+  <si>
+    <t>Krawlarz2008</t>
+  </si>
+  <si>
+    <t>CT,OR,GP</t>
+  </si>
+  <si>
+    <t>Jefferson2008</t>
+  </si>
+  <si>
+    <t>Zhou2008</t>
+  </si>
+  <si>
+    <t>Borkowska2008</t>
+  </si>
+  <si>
+    <t>Luna2008</t>
+  </si>
+  <si>
+    <t>Karlsson2008a</t>
+  </si>
+  <si>
+    <t>CS,WS,SD,GP</t>
+  </si>
+  <si>
+    <t>Donohue2008</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11444,6 +11663,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A2D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -11862,7 +12087,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -11879,6 +12104,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11987,7 +12213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -12039,7 +12265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -12243,8 +12469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
-      <selection activeCell="H613" sqref="H613"/>
+    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
+      <selection activeCell="A665" sqref="A665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30657,7 +30883,7 @@
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>4</v>
+        <v>3712</v>
       </c>
       <c r="B613" t="s">
         <v>1422</v>
@@ -30677,10 +30903,19 @@
       <c r="G613">
         <v>2009</v>
       </c>
+      <c r="H613" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I613" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J613" t="s">
+        <v>2657</v>
+      </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>4</v>
+        <v>3713</v>
       </c>
       <c r="B614" t="s">
         <v>1425</v>
@@ -30700,10 +30935,19 @@
       <c r="G614">
         <v>2009</v>
       </c>
+      <c r="H614" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I614" t="s">
+        <v>3714</v>
+      </c>
+      <c r="J614" t="s">
+        <v>2661</v>
+      </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>4</v>
+        <v>3715</v>
       </c>
       <c r="B615" t="s">
         <v>1427</v>
@@ -30723,10 +30967,16 @@
       <c r="G615">
         <v>2009</v>
       </c>
+      <c r="H615" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I615" t="s">
+        <v>3516</v>
+      </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>4</v>
+        <v>3716</v>
       </c>
       <c r="B616" t="s">
         <v>1429</v>
@@ -30746,10 +30996,19 @@
       <c r="G616">
         <v>2009</v>
       </c>
+      <c r="H616" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I616" t="s">
+        <v>3134</v>
+      </c>
+      <c r="J616" t="s">
+        <v>2661</v>
+      </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>4</v>
+        <v>3717</v>
       </c>
       <c r="B617" t="s">
         <v>1431</v>
@@ -30769,10 +31028,16 @@
       <c r="G617">
         <v>2009</v>
       </c>
+      <c r="H617" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I617" t="s">
+        <v>3718</v>
+      </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>4</v>
+        <v>3719</v>
       </c>
       <c r="B618" t="s">
         <v>1433</v>
@@ -30792,10 +31057,16 @@
       <c r="G618">
         <v>2009</v>
       </c>
+      <c r="H618" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I618" t="s">
+        <v>2863</v>
+      </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>4</v>
+        <v>3720</v>
       </c>
       <c r="B619" t="s">
         <v>1435</v>
@@ -30815,10 +31086,19 @@
       <c r="G619">
         <v>2009</v>
       </c>
+      <c r="H619" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I619" t="s">
+        <v>3721</v>
+      </c>
+      <c r="J619" t="s">
+        <v>2661</v>
+      </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>4</v>
+        <v>3722</v>
       </c>
       <c r="B620" t="s">
         <v>1437</v>
@@ -30838,10 +31118,19 @@
       <c r="G620">
         <v>2009</v>
       </c>
+      <c r="H620" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I620" t="s">
+        <v>3133</v>
+      </c>
+      <c r="J620" t="s">
+        <v>2661</v>
+      </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>4</v>
+        <v>3723</v>
       </c>
       <c r="B621" t="s">
         <v>1439</v>
@@ -30861,10 +31150,19 @@
       <c r="G621">
         <v>2009</v>
       </c>
+      <c r="H621" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I621" t="s">
+        <v>3724</v>
+      </c>
+      <c r="J621" t="s">
+        <v>2657</v>
+      </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>4</v>
+        <v>3725</v>
       </c>
       <c r="B622" t="s">
         <v>1441</v>
@@ -30884,10 +31182,19 @@
       <c r="G622">
         <v>2009</v>
       </c>
+      <c r="H622" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I622" t="s">
+        <v>3726</v>
+      </c>
+      <c r="J622" t="s">
+        <v>2661</v>
+      </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>4</v>
+        <v>3728</v>
       </c>
       <c r="B623" t="s">
         <v>1358</v>
@@ -30907,10 +31214,19 @@
       <c r="G623">
         <v>2009</v>
       </c>
+      <c r="H623" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I623" t="s">
+        <v>3727</v>
+      </c>
+      <c r="J623" t="s">
+        <v>3588</v>
+      </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>4</v>
+        <v>3729</v>
       </c>
       <c r="B624" t="s">
         <v>1444</v>
@@ -30930,10 +31246,16 @@
       <c r="G624">
         <v>2008</v>
       </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H624" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I624" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>4</v>
+        <v>3730</v>
       </c>
       <c r="B625" t="s">
         <v>1447</v>
@@ -30953,10 +31275,16 @@
       <c r="G625">
         <v>2008</v>
       </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H625" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I625" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>4</v>
+        <v>3732</v>
       </c>
       <c r="B626" t="s">
         <v>1449</v>
@@ -30976,10 +31304,19 @@
       <c r="G626">
         <v>2008</v>
       </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H626" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I626" t="s">
+        <v>3733</v>
+      </c>
+      <c r="J626" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>4</v>
+        <v>3734</v>
       </c>
       <c r="B627" t="s">
         <v>1451</v>
@@ -30999,10 +31336,16 @@
       <c r="G627">
         <v>2008</v>
       </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H627" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I627" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>4</v>
+        <v>3735</v>
       </c>
       <c r="B628" t="s">
         <v>1453</v>
@@ -31022,10 +31365,16 @@
       <c r="G628">
         <v>2008</v>
       </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H628" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I628" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>4</v>
+        <v>3737</v>
       </c>
       <c r="B629" t="s">
         <v>1455</v>
@@ -31045,10 +31394,19 @@
       <c r="G629">
         <v>2008</v>
       </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H629" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I629" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J629" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>4</v>
+        <v>3738</v>
       </c>
       <c r="B630" t="s">
         <v>1457</v>
@@ -31068,10 +31426,19 @@
       <c r="G630">
         <v>2008</v>
       </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H630" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I630" t="s">
+        <v>2659</v>
+      </c>
+      <c r="J630" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>4</v>
+        <v>3739</v>
       </c>
       <c r="B631" t="s">
         <v>1460</v>
@@ -31091,10 +31458,16 @@
       <c r="G631">
         <v>2008</v>
       </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H631" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I631" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>4</v>
+        <v>3741</v>
       </c>
       <c r="B632" t="s">
         <v>1463</v>
@@ -31114,10 +31487,19 @@
       <c r="G632">
         <v>2008</v>
       </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H632" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I632" t="s">
+        <v>3355</v>
+      </c>
+      <c r="J632" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>4</v>
+        <v>3742</v>
       </c>
       <c r="B633" t="s">
         <v>1465</v>
@@ -31137,10 +31519,19 @@
       <c r="G633">
         <v>2008</v>
       </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H633" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I633" t="s">
+        <v>3743</v>
+      </c>
+      <c r="J633" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>4</v>
+        <v>3744</v>
       </c>
       <c r="B634" t="s">
         <v>1398</v>
@@ -31160,10 +31551,16 @@
       <c r="G634">
         <v>2008</v>
       </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H634" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I634" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>4</v>
+        <v>3746</v>
       </c>
       <c r="B635" t="s">
         <v>1468</v>
@@ -31183,10 +31580,16 @@
       <c r="G635">
         <v>2008</v>
       </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H635" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I635" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>4</v>
+        <v>3747</v>
       </c>
       <c r="B636" t="s">
         <v>1470</v>
@@ -31206,10 +31609,19 @@
       <c r="G636">
         <v>2008</v>
       </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H636" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I636" t="s">
+        <v>3748</v>
+      </c>
+      <c r="J636" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>4</v>
+        <v>3749</v>
       </c>
       <c r="B637" t="s">
         <v>1472</v>
@@ -31229,10 +31641,19 @@
       <c r="G637">
         <v>2008</v>
       </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H637" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I637" t="s">
+        <v>2916</v>
+      </c>
+      <c r="J637" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>4</v>
+        <v>3750</v>
       </c>
       <c r="B638" t="s">
         <v>1474</v>
@@ -31252,10 +31673,19 @@
       <c r="G638">
         <v>2008</v>
       </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H638" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I638" t="s">
+        <v>2837</v>
+      </c>
+      <c r="J638" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>4</v>
+        <v>3751</v>
       </c>
       <c r="B639" t="s">
         <v>1476</v>
@@ -31275,10 +31705,16 @@
       <c r="G639">
         <v>2008</v>
       </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H639" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I639" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>4</v>
+        <v>3752</v>
       </c>
       <c r="B640" t="s">
         <v>1478</v>
@@ -31298,10 +31734,19 @@
       <c r="G640">
         <v>2008</v>
       </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H640" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I640" t="s">
+        <v>3753</v>
+      </c>
+      <c r="J640" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>4</v>
+        <v>3754</v>
       </c>
       <c r="B641" t="s">
         <v>1481</v>
@@ -31321,10 +31766,19 @@
       <c r="G641">
         <v>2008</v>
       </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H641" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I641" t="s">
+        <v>2767</v>
+      </c>
+      <c r="J641" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>4</v>
+        <v>3755</v>
       </c>
       <c r="B642" t="s">
         <v>1483</v>
@@ -31344,10 +31798,19 @@
       <c r="G642">
         <v>2008</v>
       </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H642" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I642" t="s">
+        <v>3756</v>
+      </c>
+      <c r="J642" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>4</v>
+        <v>3757</v>
       </c>
       <c r="B643" t="s">
         <v>1485</v>
@@ -31367,10 +31830,16 @@
       <c r="G643">
         <v>2008</v>
       </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A644" s="1" t="s">
-        <v>4</v>
+      <c r="H643" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I643" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A644" s="16" t="s">
+        <v>3758</v>
       </c>
       <c r="B644" t="s">
         <v>1487</v>
@@ -31390,10 +31859,19 @@
       <c r="G644">
         <v>2008</v>
       </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H644" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I644" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J644" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>4</v>
+        <v>3759</v>
       </c>
       <c r="B645" t="s">
         <v>1489</v>
@@ -31413,10 +31891,19 @@
       <c r="G645">
         <v>2008</v>
       </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H645" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I645" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J645" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>4</v>
+        <v>3760</v>
       </c>
       <c r="B646" t="s">
         <v>1491</v>
@@ -31436,10 +31923,19 @@
       <c r="G646">
         <v>2008</v>
       </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H646" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I646" t="s">
+        <v>2866</v>
+      </c>
+      <c r="J646" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>4</v>
+        <v>3761</v>
       </c>
       <c r="B647" t="s">
         <v>1493</v>
@@ -31459,10 +31955,19 @@
       <c r="G647">
         <v>2008</v>
       </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H647" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I647" t="s">
+        <v>2823</v>
+      </c>
+      <c r="J647" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>4</v>
+        <v>3762</v>
       </c>
       <c r="B648" t="s">
         <v>1495</v>
@@ -31482,10 +31987,16 @@
       <c r="G648">
         <v>2008</v>
       </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H648" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I648" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>4</v>
+        <v>3763</v>
       </c>
       <c r="B649" t="s">
         <v>1497</v>
@@ -31505,10 +32016,19 @@
       <c r="G649">
         <v>2008</v>
       </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H649" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I649" t="s">
+        <v>2659</v>
+      </c>
+      <c r="J649" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>4</v>
+        <v>3764</v>
       </c>
       <c r="B650" t="s">
         <v>1500</v>
@@ -31528,10 +32048,19 @@
       <c r="G650">
         <v>2008</v>
       </c>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H650" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I650" t="s">
+        <v>3765</v>
+      </c>
+      <c r="J650" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>4</v>
+        <v>3766</v>
       </c>
       <c r="B651" t="s">
         <v>1502</v>
@@ -31551,10 +32080,19 @@
       <c r="G651">
         <v>2008</v>
       </c>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H651" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I651" t="s">
+        <v>3767</v>
+      </c>
+      <c r="J651" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>4</v>
+        <v>3768</v>
       </c>
       <c r="B652" t="s">
         <v>1504</v>
@@ -31574,10 +32112,16 @@
       <c r="G652">
         <v>2008</v>
       </c>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H652" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I652" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>4</v>
+        <v>3769</v>
       </c>
       <c r="B653" t="s">
         <v>1506</v>
@@ -31597,10 +32141,16 @@
       <c r="G653">
         <v>2008</v>
       </c>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H653" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I653" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>4</v>
+        <v>3770</v>
       </c>
       <c r="B654" t="s">
         <v>1508</v>
@@ -31620,10 +32170,19 @@
       <c r="G654">
         <v>2008</v>
       </c>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H654" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I654" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J654" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>4</v>
+        <v>3771</v>
       </c>
       <c r="B655" t="s">
         <v>1510</v>
@@ -31643,10 +32202,16 @@
       <c r="G655">
         <v>2008</v>
       </c>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H655" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I655" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>4</v>
+        <v>3773</v>
       </c>
       <c r="B656" t="s">
         <v>1512</v>
@@ -31666,10 +32231,16 @@
       <c r="G656">
         <v>2008</v>
       </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H656" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I656" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>4</v>
+        <v>3775</v>
       </c>
       <c r="B657" t="s">
         <v>1337</v>
@@ -31689,10 +32260,16 @@
       <c r="G657">
         <v>2008</v>
       </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H657" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I657" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>4</v>
+        <v>3776</v>
       </c>
       <c r="B658" t="s">
         <v>1516</v>
@@ -31712,10 +32289,19 @@
       <c r="G658">
         <v>2008</v>
       </c>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H658" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I658" t="s">
+        <v>3777</v>
+      </c>
+      <c r="J658" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>4</v>
+        <v>3778</v>
       </c>
       <c r="B659" t="s">
         <v>1518</v>
@@ -31735,10 +32321,19 @@
       <c r="G659">
         <v>2008</v>
       </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H659" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I659" t="s">
+        <v>2938</v>
+      </c>
+      <c r="J659" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>4</v>
+        <v>3779</v>
       </c>
       <c r="B660" t="s">
         <v>1520</v>
@@ -31758,10 +32353,19 @@
       <c r="G660">
         <v>2008</v>
       </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H660" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I660" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J660" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>4</v>
+        <v>3780</v>
       </c>
       <c r="B661" t="s">
         <v>1523</v>
@@ -31778,10 +32382,19 @@
       <c r="G661">
         <v>2008</v>
       </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H661" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I661" t="s">
+        <v>2871</v>
+      </c>
+      <c r="J661" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>4</v>
+        <v>3781</v>
       </c>
       <c r="B662" t="s">
         <v>1525</v>
@@ -31801,10 +32414,19 @@
       <c r="G662">
         <v>2008</v>
       </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H662" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I662" t="s">
+        <v>2837</v>
+      </c>
+      <c r="J662" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>4</v>
+        <v>3782</v>
       </c>
       <c r="B663" t="s">
         <v>1528</v>
@@ -31824,10 +32446,19 @@
       <c r="G663">
         <v>2008</v>
       </c>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H663" t="s">
+        <v>2652</v>
+      </c>
+      <c r="I663" t="s">
+        <v>3783</v>
+      </c>
+      <c r="J663" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>4</v>
+        <v>3784</v>
       </c>
       <c r="B664" t="s">
         <v>1530</v>
@@ -31848,7 +32479,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>4</v>
       </c>
@@ -31871,7 +32502,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>4</v>
       </c>
@@ -31894,7 +32525,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>4</v>
       </c>
@@ -31917,7 +32548,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>4</v>
       </c>
@@ -31940,7 +32571,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>4</v>
       </c>
@@ -31963,7 +32594,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>4</v>
       </c>
@@ -31986,7 +32617,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>4</v>
       </c>
@@ -32009,7 +32640,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>4</v>
       </c>

--- a/OERGRES_NEW.xlsx
+++ b/OERGRES_NEW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="28360" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="28360" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainoegres" sheetId="1" r:id="rId1"/>
